--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoTrivia.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoTrivia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Trivia\gameTrivia\src\assets\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA58B8-BA5E-433E-AC6D-ACCE89C7A377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8922ED2-2120-4883-A011-B4AF22696652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2475" windowWidth="23460" windowHeight="11385" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,16 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>PREGUNTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPCION A </t>
-  </si>
-  <si>
-    <t>OPCION B</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>OPCION C</t>
   </si>
@@ -77,9 +68,6 @@
     <t>OPCION D</t>
   </si>
   <si>
-    <t>CORRECTA</t>
-  </si>
-  <si>
     <t>¿Ejemplo?</t>
   </si>
   <si>
@@ -93,6 +81,21 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Ejemplo Opcion 4</t>
+  </si>
+  <si>
+    <t>PREGUNTA*</t>
+  </si>
+  <si>
+    <t>OPCION A*</t>
+  </si>
+  <si>
+    <t>OPCION B*</t>
+  </si>
+  <si>
+    <t>CORRECTA*</t>
   </si>
 </sst>
 </file>
@@ -166,9 +169,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +209,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,7 +468,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,48 +478,48 @@
     <col min="3" max="3" width="17.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoTrivia.xlsx
+++ b/FrontWebApp/src/assets/archivos/FormatoPreguntasRetoTrivia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\OneDrive - Digimentore SA\Escritorio\GitHub\Evolution\FrontWebApp\src\assets\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8922ED2-2120-4883-A011-B4AF22696652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C09682-C35B-4A8F-B152-AF6CE448D0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
+    <workbookView xWindow="1515" yWindow="1875" windowWidth="23940" windowHeight="12630" xr2:uid="{FE103640-2DAE-4961-952E-D2E3860AE216}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>OPCION C</t>
-  </si>
-  <si>
-    <t>OPCION D</t>
-  </si>
-  <si>
     <t>¿Ejemplo?</t>
   </si>
   <si>
@@ -89,13 +83,19 @@
     <t>PREGUNTA*</t>
   </si>
   <si>
-    <t>OPCION A*</t>
-  </si>
-  <si>
-    <t>OPCION B*</t>
-  </si>
-  <si>
     <t>CORRECTA*</t>
+  </si>
+  <si>
+    <t>OPCIÓN A*</t>
+  </si>
+  <si>
+    <t>OPCIÓN B*</t>
+  </si>
+  <si>
+    <t>OPCIÓN C</t>
+  </si>
+  <si>
+    <t>OPCIÓN D</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,42 +484,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
